--- a/BASE.xlsx
+++ b/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\requerimiento-pago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90181D3-043D-450C-B2BF-032C2D946F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027E133-E764-4692-8114-274B79D3AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Status</t>
   </si>
@@ -74,6 +74,132 @@
   </si>
   <si>
     <t>Clase operación CME</t>
+  </si>
+  <si>
+    <t>PE01</t>
+  </si>
+  <si>
+    <t>7486331651</t>
+  </si>
+  <si>
+    <t>4072772</t>
+  </si>
+  <si>
+    <t>6010425319</t>
+  </si>
+  <si>
+    <t>E1-0019-00159673</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>7486555370</t>
+  </si>
+  <si>
+    <t>6010643182</t>
+  </si>
+  <si>
+    <t>E1-0019-00160791</t>
+  </si>
+  <si>
+    <t>7486565702</t>
+  </si>
+  <si>
+    <t>6010647763</t>
+  </si>
+  <si>
+    <t>E1-0019-00161867</t>
+  </si>
+  <si>
+    <t>4073754</t>
+  </si>
+  <si>
+    <t>6013124248</t>
+  </si>
+  <si>
+    <t>E1-0019-00153866</t>
+  </si>
+  <si>
+    <t>4074733</t>
+  </si>
+  <si>
+    <t>5890006701</t>
+  </si>
+  <si>
+    <t>E8-0020-00271398</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>6010408851</t>
+  </si>
+  <si>
+    <t>E1-0019-00159090</t>
+  </si>
+  <si>
+    <t>6010652609</t>
+  </si>
+  <si>
+    <t>E1-0019-00162424</t>
+  </si>
+  <si>
+    <t>5890011749</t>
+  </si>
+  <si>
+    <t>E8-0019-00065483</t>
+  </si>
+  <si>
+    <t>PE16</t>
+  </si>
+  <si>
+    <t>7486548810</t>
+  </si>
+  <si>
+    <t>6010636645</t>
+  </si>
+  <si>
+    <t>E1-0019-00160659</t>
+  </si>
+  <si>
+    <t>PE17</t>
+  </si>
+  <si>
+    <t>7486556358</t>
+  </si>
+  <si>
+    <t>6010644170</t>
+  </si>
+  <si>
+    <t>E1-0019-00161770</t>
+  </si>
+  <si>
+    <t>7486314477</t>
+  </si>
+  <si>
+    <t>2290314368</t>
+  </si>
+  <si>
+    <t>E1-0019-00158759</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>6010408477</t>
+  </si>
+  <si>
+    <t>E1-0019-00158716</t>
+  </si>
+  <si>
+    <t>2290314095</t>
+  </si>
+  <si>
+    <t>E1-0019-00156204</t>
   </si>
 </sst>
 </file>
@@ -472,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0BCC03-118B-4971-B886-DC1B64F356D9}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +676,514 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>45348</v>
+      </c>
+      <c r="H2">
+        <v>45363</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>362.32</v>
+      </c>
+      <c r="N2">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>45376</v>
+      </c>
+      <c r="H3">
+        <v>45383</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>184589.12</v>
+      </c>
+      <c r="N3">
+        <v>49620.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>45377</v>
+      </c>
+      <c r="H4">
+        <v>45392</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>47.58</v>
+      </c>
+      <c r="N4">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>45287</v>
+      </c>
+      <c r="H5">
+        <v>45294</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>11.01</v>
+      </c>
+      <c r="N5">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>45344</v>
+      </c>
+      <c r="H6">
+        <v>45347</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>0.51</v>
+      </c>
+      <c r="N6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>45345</v>
+      </c>
+      <c r="H7">
+        <v>45352</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>98.59</v>
+      </c>
+      <c r="N7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>45377</v>
+      </c>
+      <c r="H8">
+        <v>45384</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>24.7</v>
+      </c>
+      <c r="N8">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>45385</v>
+      </c>
+      <c r="H9">
+        <v>45388</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>0.51</v>
+      </c>
+      <c r="N9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>185134.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>45376</v>
+      </c>
+      <c r="H11">
+        <v>45383</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <v>154.72</v>
+      </c>
+      <c r="N11">
+        <v>41.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12">
+        <v>154.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>45376</v>
+      </c>
+      <c r="H13">
+        <v>45383</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>30238.560000000001</v>
+      </c>
+      <c r="N13">
+        <v>8128.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>45377</v>
+      </c>
+      <c r="H14">
+        <v>45352</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>14051.36</v>
+      </c>
+      <c r="N14">
+        <v>3777.25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>45345</v>
+      </c>
+      <c r="H15">
+        <v>45352</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>102.71</v>
+      </c>
+      <c r="N15">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <v>45377</v>
+      </c>
+      <c r="H16">
+        <v>45322</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>143.91</v>
+      </c>
+      <c r="N16">
+        <v>38.69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>44536.54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M18">
+        <v>229825.6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{BA0BCC03-118B-4971-B886-DC1B64F356D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
